--- a/data/블로그_프로토콜.xlsx
+++ b/data/블로그_프로토콜.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본문 number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,18 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">아이디가 틀린 경우: "0", 비밀번호가 틀린 경우: "1", 로그인에 성공한 경우: "이름:닉네임:사용자 등급" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디나 닉네임이 중복된 경우: "0", 회원가입에 성공한 경우: "아이디:이름:닉네임:비밀번호:사용자 등급"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성된 게시글의 모든 제목을 반환: "게시글 번호:닉네임:제목", 다 전달한 경우 "eof"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"1:abc123:abc7789"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +87,63 @@
   </si>
   <si>
     <t>"4:512435"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청하고자 하는 게시글의 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디가 틀린 경우: "0",
+비밀번호가 틀린 경우: "1", 
+로그인에 성공한 경우: "이름:닉네임:사용자 등급" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디나 닉네임이 중복된 경우: "0", 
+회원가입에 성공한 경우: "1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 게시글의 모든 제목을 반환: "게시글 번호:닉네임:제목", 
+다 전달한 경우 "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>요청한 게시글의 정보를 반환: "본문 내용:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 수**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:댓글 작성자:댓글 내용…"(댓글 수 만큼 작성자:내용 반복)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**(댓글 수를 통해 strtok나 getline(buf, ':') 함수를  몇 번 사용할 지 결정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +176,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,6 +235,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -202,9 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,8 +277,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,149 +575,155 @@
     <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="64.625" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/블로그_프로토콜.xlsx
+++ b/data/블로그_프로토콜.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DREAM06\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\홍동의\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49AA39A-5FDB-4ECD-947A-B11C9CE427E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10170"/>
+    <workbookView xWindow="10536" yWindow="132" windowWidth="12492" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +112,26 @@
   <si>
     <t>작성된 게시글의 모든 제목을 반환: "게시글 번호:닉네임:제목", 
 다 전달한 경우 "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**(댓글 수를 통해 strtok나 getline(buf, ':') 함수를  몇 번 사용할 지 결정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임:제목:본문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5:apple:오늘의 일기:오늘은 맑았다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글의 번호를 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,28 +150,30 @@
       </rPr>
       <t>댓글 수**</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:댓글 작성자:댓글 내용…"(댓글 수 만큼 작성자:내용 반복)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**(댓글 수를 통해 strtok나 getline(buf, ':') 함수를  몇 번 사용할 지 결정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호:닉네임:제목:본문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 성공 시 : "1"
+수정 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6:apple:오늘의 일기(수정):오늘은 비가 왔다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,23 +585,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="32.19921875" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="64.625" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="57.625" customWidth="1"/>
+    <col min="4" max="4" width="64.59765625" customWidth="1"/>
+    <col min="5" max="5" width="40.296875" customWidth="1"/>
+    <col min="6" max="6" width="64.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -595,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,7 +635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -646,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,71 +680,95 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>11</v>
       </c>

--- a/data/블로그_프로토콜.xlsx
+++ b/data/블로그_프로토콜.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\홍동의\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\홍동의\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49AA39A-5FDB-4ECD-947A-B11C9CE427E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6FB7BB-4D59-4046-8E63-DBB5A148B72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10536" yWindow="132" windowWidth="12492" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,22 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 정보(id, 본문, 댓글) 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 제목 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"1:abc123:abc7789"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,17 +80,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요청하고자 하는 게시글의 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력 예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아이디가 틀린 경우: "0",
-비밀번호가 틀린 경우: "1", 
-로그인에 성공한 경우: "이름:닉네임:사용자 등급" </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,54 +89,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성된 게시글의 모든 제목을 반환: "게시글 번호:닉네임:제목", 
-다 전달한 경우 "0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**(댓글 수를 통해 strtok나 getline(buf, ':') 함수를  몇 번 사용할 지 결정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>닉네임:제목:본문 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5:apple:오늘의 일기:오늘은 맑았다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글의 번호를 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>요청한 게시글의 정보를 반환: "본문 내용:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>댓글 수**</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호:닉네임:제목:본문 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,7 +102,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"6:apple:오늘의 일기(수정):오늘은 비가 왔다."</t>
+    <t>제목:닉네임:본문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 모든 게시글의 json 문자열을 반환
+다 보냈으면 1 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5:오늘의 일기:apple:오늘은 맑았다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6:오늘의 일기2:apple:오늘은 흐렸다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 게시글 정보 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 게시글 정보 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 성공 시 : "1"
+삭제 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 게시글의 json 문자열을 반환
+실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 게시글의 id번호를 반환
+실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 성공 시 : "1"
+작성 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7:423"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 id:닉네임:내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 id:제목:본문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청하고자 하는 게시글의 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 id:댓글 index:내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8:423:apple:좋은 글 감사합니다 ㅎㅎ."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9:423:2:수정된 댓글입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 id:댓글 index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10:423:2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 틀린 경우: "-1",
+비밀번호가 틀린 경우: "-2", 
+회원 탈퇴에 성공한 경우: "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"11:apple:7789"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 틀린 경우: "-1",
+비밀번호가 틀린 경우: "-2", 
+로그인에 성공한 경우: 로그인 한 유저 json 문자열 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank: 1: 관리자, 2: 일반 사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,28 +252,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -230,7 +268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,9 +300,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -279,32 +315,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -602,175 +638,210 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>11</v>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/블로그_프로토콜.xlsx
+++ b/data/블로그_프로토콜.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\홍동의\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DREAM06\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6FB7BB-4D59-4046-8E63-DBB5A148B72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10440" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +63,6 @@
   </si>
   <si>
     <t>"2:abc123:홍동의:apple:abc7789"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,11 +93,6 @@
   </si>
   <si>
     <t>제목:닉네임:본문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성된 모든 게시글의 json 문자열을 반환
-다 보냈으면 1 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,13 +205,37 @@
   </si>
   <si>
     <t>rank: 1: 관리자, 2: 일반 사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 id:파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 번호에 해당하는 20개의 게시글 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3:2"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -305,13 +314,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +361,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,23 +647,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.19921875" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="64.59765625" customWidth="1"/>
-    <col min="5" max="5" width="40.296875" customWidth="1"/>
-    <col min="6" max="6" width="64.59765625" customWidth="1"/>
+    <col min="4" max="4" width="64.625" customWidth="1"/>
+    <col min="5" max="5" width="40.25" customWidth="1"/>
+    <col min="6" max="6" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,15 +674,15 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -665,18 +691,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -685,151 +711,151 @@
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>11</v>
@@ -838,10 +864,29 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="11">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/블로그_프로토콜.xlsx
+++ b/data/블로그_프로토콜.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,24 @@
   </si>
   <si>
     <t>"3:2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 성공 시 : "1"
+업로드 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 성공 시 : "1"
+다운로드 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12:2:image.jpg"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"13:2:image.jpg"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,24 +332,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,12 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -870,23 +871,38 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="4">
         <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/블로그_프로토콜.xlsx
+++ b/data/블로그_프로토콜.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,55 +198,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rank: 1: 관리자, 2: 일반 사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 id:파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3:2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 성공 시 : "1"
+업로드 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 성공 시 : "1"
+다운로드 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12:2:image.jpg"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"13:2:image.jpg"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 성공 시 : "1"
+로그아웃 실패 시 : "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"14:abc123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>아이디가 틀린 경우: "-1",
 비밀번호가 틀린 경우: "-2", 
+중복된 로그인인 경우: "-3",
 로그인에 성공한 경우: 로그인 한 유저 json 문자열 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rank: 1: 관리자, 2: 일반 사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 id:파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 번호에 해당하는 20개의 게시글 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3:2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드 성공 시 : "1"
-업로드 실패 시 : "0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다운로드 성공 시 : "1"
-다운로드 실패 시 : "0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12:2:image.jpg"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"13:2:image.jpg"</t>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 게시글 정보 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -692,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -726,13 +744,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -873,36 +891,53 @@
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
